--- a/Set_game/set logic and thinking and planning.xlsx
+++ b/Set_game/set logic and thinking and planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\py\Set_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\py\Set_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0713CA-832E-425B-819A-70745437D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E3DDD5-4FFF-42EB-8686-824700A30A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2805" windowWidth="28800" windowHeight="18195" xr2:uid="{2F0484A8-F58A-4C12-A336-CFAC2E26B5CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{2F0484A8-F58A-4C12-A336-CFAC2E26B5CD}"/>
   </bookViews>
   <sheets>
     <sheet name="game flow" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>i</t>
   </si>
@@ -263,13 +263,73 @@
   </si>
   <si>
     <t>beep/boop on click</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>4 dif</t>
+  </si>
+  <si>
+    <t>3 dif</t>
+  </si>
+  <si>
+    <t>2 dif</t>
+  </si>
+  <si>
+    <t>1dif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mod 3 == 0 </t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>encode as 123</t>
+  </si>
+  <si>
+    <t>encode as 012</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>11x</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>i&lt;j&lt;m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +345,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +395,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,10 +450,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -379,6 +465,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,13 +482,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -918,21 +1011,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6393557-F7ED-41A8-BED8-9D24A579450D}">
   <dimension ref="D4:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="N4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -940,18 +1033,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -962,17 +1055,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.45">
       <c r="O9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.45">
       <c r="P10" s="6" t="s">
         <v>52</v>
       </c>
@@ -980,8 +1073,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.45">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -991,18 +1084,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>31</v>
       </c>
@@ -1013,12 +1106,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>34</v>
       </c>
@@ -1034,7 +1127,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>36</v>
       </c>
@@ -1058,7 +1151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
         <v>38</v>
       </c>
@@ -1066,12 +1159,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.45">
       <c r="G22" t="s">
         <v>40</v>
       </c>
@@ -1079,7 +1172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
         <v>42</v>
       </c>
@@ -1095,7 +1188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
         <v>43</v>
       </c>
@@ -1103,7 +1196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.45">
       <c r="G26" t="s">
         <v>44</v>
       </c>
@@ -1111,7 +1204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.45">
       <c r="H27" t="s">
         <v>45</v>
       </c>
@@ -1119,20 +1212,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.45">
       <c r="H28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D29" s="11" t="s">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D29" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
         <v>48</v>
       </c>
@@ -1148,43 +1241,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B902B1-6F60-4D7D-B442-66CD8CED7671}">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5.59765625" customWidth="1"/>
     <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
     <col min="17" max="22" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
+    <col min="23" max="23" width="5.86328125" customWidth="1"/>
     <col min="24" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="6.86328125" customWidth="1"/>
     <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="6"/>
+    <col min="29" max="29" width="9.1328125" style="6"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>0</v>
@@ -1223,8 +1316,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -1274,8 +1367,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4" s="10"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1316,8 +1409,8 @@
       </c>
       <c r="AD4" s="6"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A5" s="10"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1364,8 +1457,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A6" s="10"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1408,8 +1501,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A7" s="10"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1446,8 +1539,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A8" s="10"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1485,8 +1578,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1517,8 +1610,8 @@
       </c>
       <c r="AD9" s="6"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1542,6 +1635,9 @@
       <c r="N10" s="2">
         <v>60</v>
       </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
       <c r="AD10" s="6">
         <v>5</v>
       </c>
@@ -1549,8 +1645,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A11" s="10"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1579,8 +1675,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1607,8 +1703,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1628,8 +1724,8 @@
       </c>
       <c r="AD13" s="6"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1652,7 +1748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AD15" s="6">
         <v>9</v>
       </c>
@@ -1660,21 +1756,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="P16" s="10" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="P16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
       <c r="AD16" s="6">
         <v>10</v>
       </c>
@@ -1682,7 +1778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:31" x14ac:dyDescent="0.45">
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
         <v>0</v>
@@ -1722,8 +1818,8 @@
       </c>
       <c r="AD17" s="6"/>
     </row>
-    <row r="18" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O18" s="9" t="s">
+    <row r="18" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="P18" s="1">
@@ -1784,8 +1880,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O19" s="9"/>
+    <row r="19" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O19" s="12"/>
       <c r="P19" s="1">
         <v>1</v>
       </c>
@@ -1844,8 +1940,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O20" s="9"/>
+    <row r="20" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O20" s="12"/>
       <c r="P20" s="1">
         <v>2</v>
       </c>
@@ -1904,8 +2000,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O21" s="9"/>
+    <row r="21" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O21" s="12"/>
       <c r="P21" s="1">
         <v>3</v>
       </c>
@@ -1958,8 +2054,8 @@
         <v>(3,11)</v>
       </c>
     </row>
-    <row r="22" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O22" s="9"/>
+    <row r="22" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O22" s="12"/>
       <c r="P22" s="1">
         <v>4</v>
       </c>
@@ -2018,8 +2114,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O23" s="9"/>
+    <row r="23" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O23" s="12"/>
       <c r="P23" s="1">
         <v>5</v>
       </c>
@@ -2072,8 +2168,8 @@
         <v>(5,11)</v>
       </c>
     </row>
-    <row r="24" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O24" s="9"/>
+    <row r="24" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O24" s="12"/>
       <c r="P24" s="1">
         <v>6</v>
       </c>
@@ -2126,8 +2222,8 @@
         <v>(6,11)</v>
       </c>
     </row>
-    <row r="25" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O25" s="9"/>
+    <row r="25" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O25" s="12"/>
       <c r="P25" s="1">
         <v>7</v>
       </c>
@@ -2180,8 +2276,8 @@
         <v>(7,11)</v>
       </c>
     </row>
-    <row r="26" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O26" s="9"/>
+    <row r="26" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O26" s="12"/>
       <c r="P26" s="1">
         <v>8</v>
       </c>
@@ -2234,8 +2330,8 @@
         <v>(8,11)</v>
       </c>
     </row>
-    <row r="27" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O27" s="9"/>
+    <row r="27" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O27" s="12"/>
       <c r="P27" s="1">
         <v>9</v>
       </c>
@@ -2288,8 +2384,8 @@
         <v>(9,11)</v>
       </c>
     </row>
-    <row r="28" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O28" s="9"/>
+    <row r="28" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O28" s="12"/>
       <c r="P28" s="1">
         <v>10</v>
       </c>
@@ -2342,8 +2438,8 @@
         <v>(10,11)</v>
       </c>
     </row>
-    <row r="29" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="O29" s="9"/>
+    <row r="29" spans="15:31" x14ac:dyDescent="0.45">
+      <c r="O29" s="12"/>
       <c r="P29" s="1">
         <v>11</v>
       </c>
@@ -2394,6 +2490,386 @@
       <c r="AB29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>(11,11)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+      <c r="V33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
+      </c>
+      <c r="R34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S34" t="s">
+        <v>86</v>
+      </c>
+      <c r="V34" t="s">
+        <v>87</v>
+      </c>
+      <c r="W34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="15">
+        <v>112</v>
+      </c>
+      <c r="P35" s="15">
+        <v>4</v>
+      </c>
+      <c r="R35" s="16">
+        <v>111</v>
+      </c>
+      <c r="S35" s="16">
+        <v>3</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W35" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="15">
+        <v>113</v>
+      </c>
+      <c r="P36" s="15">
+        <v>5</v>
+      </c>
+      <c r="R36" s="16">
+        <v>222</v>
+      </c>
+      <c r="S36" s="16">
+        <v>6</v>
+      </c>
+      <c r="V36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="W36" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="16">
+        <v>111</v>
+      </c>
+      <c r="Z36" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="15">
+        <v>221</v>
+      </c>
+      <c r="P37" s="15">
+        <v>5</v>
+      </c>
+      <c r="R37" s="16">
+        <v>333</v>
+      </c>
+      <c r="S37" s="16">
+        <v>9</v>
+      </c>
+      <c r="V37" s="15">
+        <v>110</v>
+      </c>
+      <c r="W37" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="16">
+        <v>222</v>
+      </c>
+      <c r="Z37" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="O38" s="15">
+        <v>223</v>
+      </c>
+      <c r="P38" s="15">
+        <v>7</v>
+      </c>
+      <c r="R38" s="16">
+        <v>123</v>
+      </c>
+      <c r="S38" s="16">
+        <v>6</v>
+      </c>
+      <c r="V38" s="15">
+        <v>112</v>
+      </c>
+      <c r="W38" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z38" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="O39" s="15">
+        <v>331</v>
+      </c>
+      <c r="P39" s="15">
+        <v>7</v>
+      </c>
+      <c r="V39" s="15">
+        <v>220</v>
+      </c>
+      <c r="W39" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="O40" s="15">
+        <v>332</v>
+      </c>
+      <c r="P40" s="15">
+        <v>8</v>
+      </c>
+      <c r="V40" s="15">
+        <v>221</v>
+      </c>
+      <c r="W40" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
